--- a/src/test/resources/TestData/TestData.xlsx
+++ b/src/test/resources/TestData/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chandana\eclipse-workspace\DataDrivenFramework_2022\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1AE46F-E8C5-4BAE-8784-9F1276E0C86D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEDF6E3-EB8D-4D7C-A989-945579221691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2325" yWindow="1845" windowWidth="15375" windowHeight="7785" xr2:uid="{1DFF6926-F9DE-4E5D-AF7B-6279BBB09FC6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1DFF6926-F9DE-4E5D-AF7B-6279BBB09FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -452,7 +452,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +535,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -568,6 +568,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002428803250CA444E8017C78CFD8CA848" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3eb34715345448dab22b1cb3af512ee1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5967166e-17ef-4e83-97d6-73e01a7b2818" xmlns:ns3="cbc81075-c7f9-437d-a288-da5eabb13eaf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d48e0bcac79baae62f9b194b5f1c3f47" ns2:_="" ns3:_="">
     <xsd:import namespace="5967166e-17ef-4e83-97d6-73e01a7b2818"/>
@@ -764,16 +773,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F622EC-474F-4B86-A993-0807C80AA308}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71F1DDD4-42D6-4E39-8D4D-C41C19204C7D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -790,12 +798,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F622EC-474F-4B86-A993-0807C80AA308}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>